--- a/mageproductcsv/resources/wmf-sandwich-baker.xlsx
+++ b/mageproductcsv/resources/wmf-sandwich-baker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>WMF多士炉</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -45,9 +45,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>wmf-stelio-sandwitchbacker-329845.jpg</t>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/203712649/TB2JNM8iVXXXXXFXXXXXXXXXXXX_!!203712649.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/203712649/TB29kgMiVXXXXXtXpXXXXXXXXXX_!!203712649.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/203712649/TB2zvMKiVXXXXXMXpXXXXXXXXXX_!!203712649.jpg' /&gt;</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>wmf-Lineo-backer-329801.jpg</t>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/425461314/TB2Vp.PkpXXXXblXXXXXXXXXXXX_!!425461314.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/425461314/TB2FnswkpXXXXavXpXXXXXXXXXX_!!425461314.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/425461314/TB2p2sLkpXXXXb3XXXXXXXXXXXX_!!425461314.jpg' /&gt;</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>wmf-lono-backer-329862.jpg</t>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/199274779/TB2Zg1wcXXXXXXUXpXXXXXXXXXX_!!199274779.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/199274779/TB26oKxcXXXXXbJXXXXXXXXXXXX_!!199274779.jpg' /&gt;</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>wmf-coup-backer-329900.jpg</t>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/90282498/TB2p_vRbVXXXXchXpXXXXXXXXXX-90282498.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/90282498/TB2dM_3bVXXXXX_XXXXXXXXXXXX-90282498.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/90282498/TB2t.jSbVXXXXbnXpXXXXXXXXXX-90282498.jpg' /&gt;</t>
   </si>
   <si>
@@ -167,19 +155,74 @@
   </si>
   <si>
     <t>brand</t>
+  </si>
+  <si>
+    <t>/wmf/electrician/wmf-stelio-sandwitchbacker-329845.jpg</t>
+  </si>
+  <si>
+    <t>/wmf/electrician/wmf-Lineo-backer-329801.jpg</t>
+  </si>
+  <si>
+    <t>/wmf/electrician/wmf-lono-backer-329862.jpg</t>
+  </si>
+  <si>
+    <t>/wmf/electrician/wmf-coup-backer-329900.jpg</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>url-key</t>
+  </si>
+  <si>
+    <t>wmf-stelio-sandwitchbacker-329845</t>
+  </si>
+  <si>
+    <t>wmf-Lineo-backer-329801</t>
+  </si>
+  <si>
+    <t>wmf-lono-backer-329862</t>
+  </si>
+  <si>
+    <t>wmf-coup-backer-329900</t>
+  </si>
+  <si>
+    <t>zh-wmf-stelio-sandwitchbacker-329845</t>
+  </si>
+  <si>
+    <t>zh-wmf-Lineo-backer-329801</t>
+  </si>
+  <si>
+    <t>zh-wmf-lono-backer-329862</t>
+  </si>
+  <si>
+    <t>zh-wmf-coup-backer-329900</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,19 +245,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -547,47 +594,55 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="63.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
@@ -615,130 +670,147 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>138.88</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>99.99</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>116.88</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
